--- a/biology/Médecine/Wu_Lien-teh/Wu_Lien-teh.xlsx
+++ b/biology/Médecine/Wu_Lien-teh/Wu_Lien-teh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wu Lien-teh (伍连德, 1879-1960) est un médecin chinois né en Malaisie. Il est le premier étudiant en médecine d'origine chinoise de l'université de Cambridge et le premier sino-malaisien nommé pour le prix Nobel de médecine, en 1935[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wu Lien-teh (伍连德, 1879-1960) est un médecin chinois né en Malaisie. Il est le premier étudiant en médecine d'origine chinoise de l'université de Cambridge et le premier sino-malaisien nommé pour le prix Nobel de médecine, en 1935.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Penang, l'une des trois villes des établissements des détroits (les autres étant Malacca et Singapour) dans l'empire colonial britannique, son père est un nouvel immigrant originaire de Taishan. La famille de sa mère est aussi originaire de Chine mais elle est issue de la seconde génération d'immigrants en Malaisie. Wu a quatre frères et six sœurs. Il commence son éducation à l'école libre de Penang (en).
 Il est admis au Emmanuel College de Cambridge en 1896 après avoir obtenu la bourse de la Reine à Singapour. Il mène ensuite une brillante carrière universitaire, et gagne tous les prix et bourses possibles. Ses années de premier cycle clinique se passent au St Mary's Hospital de Londres.
@@ -521,7 +535,7 @@
 Wu préside la conférence internationale sur la peste à Mukden (Shenyang) en avril 1911, une réunion historique de scientifiques venus des États-Unis, du Royaume-Uni, de France, d'Allemagne, d'Italie, d'Autriche-Hongrie, des Pays-Bas, de Russie, du Mexique et de Chine. Il présente plus tard un article de recherche sur la peste au congrès international de médecine à Londres en août 1911 qui est publié le même mois dans The Lancet. Wu est le premier président de l'association de médecine de Chine (1916–1920) et dirige le service de quarantaine national (1931–1937).
 En 1937, après l'occupation japonaise d'une grande partie de la Chine et le recul des nationalistes, Wu retourne en Malaisie où il travaille comme médecin généraliste à Ipoh. Pour encourager les jeunes à découvrir la lecture, Wu recueille inlassablement des dons pour ouvrir la bibliothèque Perak (l'actuelle bibliothèque Tun Raza) à Ipoh, une bibliothèque publique et gratuite. À son cabinet médical du 12 Brewster Road (actuelle Jalan Sultan Idris Shah), de longues files d'attente sont monnaie courante, car il consulte et traite gratuitement les pauvres. Il pratique la médecine jusqu'à l'âge de 80 ans, lorsqu'il achète une maison à Penang pour se retirer. Il meurt le 21 janvier 1960.
 Une rue est nommée en son honneur à Ipoh Garden South, une zone résidentielle située entre le parc Hock Lee et le jardin de l'est. À Penang, une rue privée nommée Taman Wu Lien Teh est située près de l'école libre de Penang.
-Wu Lien-teh est considéré comme la première personne à avoir modernisé les services médicaux et les études de médecine de Chine. À l'université de médecine de Harbin (en), des statues en bronze de Wu Lien-teh sont installées en la mémoire de ses contributions à la santé publique, à la médecine préventive et aux études de médecine[2]. En Malaisie, une place située en face de l'école libre de Penang est nommée Taman Wu Lien Teh[3].
+Wu Lien-teh est considéré comme la première personne à avoir modernisé les services médicaux et les études de médecine de Chine. À l'université de médecine de Harbin (en), des statues en bronze de Wu Lien-teh sont installées en la mémoire de ses contributions à la santé publique, à la médecine préventive et aux études de médecine. En Malaisie, une place située en face de l'école libre de Penang est nommée Taman Wu Lien Teh.
 </t>
         </is>
       </c>
